--- a/TreatyData '60-'69 v1.xlsx
+++ b/TreatyData '60-'69 v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="480" windowWidth="17700" windowHeight="14240" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="4120" yWindow="480" windowWidth="17700" windowHeight="14240" tabRatio="500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CountryTreaties" sheetId="13" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CountryNormalization!$A$1:$C$1243</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CountryTreaties!$A$1:$D$1971</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CountryTreatiesClean!$A$1:$D$1243</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ProliferationLevel!$A$1:$C$1253</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ProliferationLevel!$A$1:$C$1243</definedName>
     <definedName name="Aid" localSheetId="2">#REF!</definedName>
     <definedName name="Aid" localSheetId="1">#REF!</definedName>
     <definedName name="Aid">#REF!</definedName>
@@ -28705,7 +28705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1251"/>
   <sheetViews>
-    <sheetView topLeftCell="A1224" workbookViewId="0">
+    <sheetView topLeftCell="A1037" workbookViewId="0">
       <selection activeCell="D1247" sqref="D1247"/>
     </sheetView>
   </sheetViews>
@@ -60020,7 +60020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -60682,10 +60682,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1261"/>
+  <dimension ref="A1:C1251"/>
   <sheetViews>
-    <sheetView topLeftCell="A1238" workbookViewId="0">
-      <selection activeCell="A1262" sqref="A1262:XFD1263"/>
+    <sheetView tabSelected="1" topLeftCell="A1036" workbookViewId="0">
+      <selection activeCell="D1051" sqref="D1051"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -72143,7 +72143,7 @@
     </row>
     <row r="1042" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1042">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1042">
         <v>1960</v>
@@ -72154,7 +72154,7 @@
     </row>
     <row r="1043" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1043">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1043">
         <v>1961</v>
@@ -72165,7 +72165,7 @@
     </row>
     <row r="1044" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1044">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1044">
         <v>1962</v>
@@ -72176,7 +72176,7 @@
     </row>
     <row r="1045" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1045">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1045">
         <v>1963</v>
@@ -72187,7 +72187,7 @@
     </row>
     <row r="1046" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1046">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1046">
         <v>1964</v>
@@ -72198,29 +72198,29 @@
     </row>
     <row r="1047" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1047">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1047">
         <v>1965</v>
       </c>
       <c r="C1047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1048">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1048">
         <v>1966</v>
       </c>
       <c r="C1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1049">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1049">
         <v>1967</v>
@@ -72231,7 +72231,7 @@
     </row>
     <row r="1050" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1050">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1050">
         <v>1968</v>
@@ -72242,7 +72242,7 @@
     </row>
     <row r="1051" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1051">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1051">
         <v>1969</v>
@@ -72253,62 +72253,62 @@
     </row>
     <row r="1052" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1052">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1052">
         <v>1960</v>
       </c>
       <c r="C1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1053">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1053">
         <v>1961</v>
       </c>
       <c r="C1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1054">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1054">
         <v>1962</v>
       </c>
       <c r="C1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1055">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1055">
         <v>1963</v>
       </c>
       <c r="C1055">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1056">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1056">
         <v>1964</v>
       </c>
       <c r="C1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1057">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1057">
         <v>1965</v>
@@ -72319,7 +72319,7 @@
     </row>
     <row r="1058" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1058">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1058">
         <v>1966</v>
@@ -72330,7 +72330,7 @@
     </row>
     <row r="1059" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1059">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1059">
         <v>1967</v>
@@ -72341,7 +72341,7 @@
     </row>
     <row r="1060" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1060">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1060">
         <v>1968</v>
@@ -72352,7 +72352,7 @@
     </row>
     <row r="1061" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1061">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1061">
         <v>1969</v>
@@ -72363,337 +72363,337 @@
     </row>
     <row r="1062" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1062">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1062">
         <v>1960</v>
       </c>
       <c r="C1062">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1063">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1063">
         <v>1961</v>
       </c>
       <c r="C1063">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1064">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1064">
         <v>1962</v>
       </c>
       <c r="C1064">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1065">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1065">
         <v>1963</v>
       </c>
       <c r="C1065">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1066">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1066">
         <v>1964</v>
       </c>
       <c r="C1066">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1067">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1067">
         <v>1965</v>
       </c>
       <c r="C1067">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1068">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1068">
         <v>1966</v>
       </c>
       <c r="C1068">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1069">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1069">
         <v>1967</v>
       </c>
       <c r="C1069">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1070">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1070">
         <v>1968</v>
       </c>
       <c r="C1070">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1071">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1071">
         <v>1969</v>
       </c>
       <c r="C1071">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1072">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1072">
         <v>1960</v>
       </c>
       <c r="C1072">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1073">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1073">
         <v>1961</v>
       </c>
       <c r="C1073">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1074">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1074">
         <v>1962</v>
       </c>
       <c r="C1074">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1075">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1075">
         <v>1963</v>
       </c>
       <c r="C1075">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1076">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1076">
         <v>1964</v>
       </c>
       <c r="C1076">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1077">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1077">
         <v>1965</v>
       </c>
       <c r="C1077">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1078">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1078">
         <v>1966</v>
       </c>
       <c r="C1078">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1079">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1079">
         <v>1967</v>
       </c>
       <c r="C1079">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1080">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1080">
         <v>1968</v>
       </c>
       <c r="C1080">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1081">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1081">
         <v>1969</v>
       </c>
       <c r="C1081">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1082">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1082">
         <v>1960</v>
       </c>
       <c r="C1082">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1083">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1083">
         <v>1961</v>
       </c>
       <c r="C1083">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1084">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1084">
         <v>1962</v>
       </c>
       <c r="C1084">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1085">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1085">
         <v>1963</v>
       </c>
       <c r="C1085">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1086">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1086">
         <v>1964</v>
       </c>
       <c r="C1086">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1087">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1087">
         <v>1965</v>
       </c>
       <c r="C1087">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1088">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1088">
         <v>1966</v>
       </c>
       <c r="C1088">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1089">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1089">
         <v>1967</v>
       </c>
       <c r="C1089">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1090">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1090">
         <v>1968</v>
       </c>
       <c r="C1090">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1091">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1091">
         <v>1969</v>
       </c>
       <c r="C1091">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1092">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1092">
         <v>1960</v>
@@ -72704,7 +72704,7 @@
     </row>
     <row r="1093" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1093">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1093">
         <v>1961</v>
@@ -72715,7 +72715,7 @@
     </row>
     <row r="1094" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1094">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1094">
         <v>1962</v>
@@ -72726,7 +72726,7 @@
     </row>
     <row r="1095" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1095">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1095">
         <v>1963</v>
@@ -72737,7 +72737,7 @@
     </row>
     <row r="1096" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1096">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1096">
         <v>1964</v>
@@ -72748,7 +72748,7 @@
     </row>
     <row r="1097" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1097">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1097">
         <v>1965</v>
@@ -72759,7 +72759,7 @@
     </row>
     <row r="1098" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1098">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1098">
         <v>1966</v>
@@ -72770,7 +72770,7 @@
     </row>
     <row r="1099" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1099">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1099">
         <v>1967</v>
@@ -72781,7 +72781,7 @@
     </row>
     <row r="1100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1100">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1100">
         <v>1968</v>
@@ -72792,7 +72792,7 @@
     </row>
     <row r="1101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1101">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1101">
         <v>1969</v>
@@ -72803,7 +72803,7 @@
     </row>
     <row r="1102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1102">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B1102">
         <v>1960</v>
@@ -72814,7 +72814,7 @@
     </row>
     <row r="1103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1103">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B1103">
         <v>1961</v>
@@ -72825,7 +72825,7 @@
     </row>
     <row r="1104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1104">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B1104">
         <v>1962</v>
@@ -72836,7 +72836,7 @@
     </row>
     <row r="1105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1105">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B1105">
         <v>1963</v>
@@ -72847,7 +72847,7 @@
     </row>
     <row r="1106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1106">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B1106">
         <v>1964</v>
@@ -72858,7 +72858,7 @@
     </row>
     <row r="1107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1107">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B1107">
         <v>1965</v>
@@ -72869,7 +72869,7 @@
     </row>
     <row r="1108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1108">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B1108">
         <v>1966</v>
@@ -72880,7 +72880,7 @@
     </row>
     <row r="1109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1109">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B1109">
         <v>1967</v>
@@ -72891,7 +72891,7 @@
     </row>
     <row r="1110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1110">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B1110">
         <v>1968</v>
@@ -72902,7 +72902,7 @@
     </row>
     <row r="1111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1111">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B1111">
         <v>1969</v>
@@ -72913,7 +72913,7 @@
     </row>
     <row r="1112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1112">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1112">
         <v>1960</v>
@@ -72924,7 +72924,7 @@
     </row>
     <row r="1113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1113">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1113">
         <v>1961</v>
@@ -72935,7 +72935,7 @@
     </row>
     <row r="1114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1114">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1114">
         <v>1962</v>
@@ -72946,7 +72946,7 @@
     </row>
     <row r="1115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1115">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1115">
         <v>1963</v>
@@ -72957,7 +72957,7 @@
     </row>
     <row r="1116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1116">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1116">
         <v>1964</v>
@@ -72968,7 +72968,7 @@
     </row>
     <row r="1117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1117">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1117">
         <v>1965</v>
@@ -72979,7 +72979,7 @@
     </row>
     <row r="1118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1118">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1118">
         <v>1966</v>
@@ -72990,7 +72990,7 @@
     </row>
     <row r="1119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1119">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1119">
         <v>1967</v>
@@ -73001,7 +73001,7 @@
     </row>
     <row r="1120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1120">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1120">
         <v>1968</v>
@@ -73012,7 +73012,7 @@
     </row>
     <row r="1121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1121">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1121">
         <v>1969</v>
@@ -73023,10 +73023,10 @@
     </row>
     <row r="1122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1122">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1122">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="C1122">
         <v>0</v>
@@ -73034,10 +73034,10 @@
     </row>
     <row r="1123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1123">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1123">
-        <v>1961</v>
+        <v>1966</v>
       </c>
       <c r="C1123">
         <v>0</v>
@@ -73045,10 +73045,10 @@
     </row>
     <row r="1124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1124">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1124">
-        <v>1962</v>
+        <v>1967</v>
       </c>
       <c r="C1124">
         <v>0</v>
@@ -73056,10 +73056,10 @@
     </row>
     <row r="1125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1125">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1125">
-        <v>1963</v>
+        <v>1968</v>
       </c>
       <c r="C1125">
         <v>0</v>
@@ -73067,10 +73067,10 @@
     </row>
     <row r="1126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1126">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1126">
-        <v>1964</v>
+        <v>1969</v>
       </c>
       <c r="C1126">
         <v>0</v>
@@ -73078,10 +73078,10 @@
     </row>
     <row r="1127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1127">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B1127">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="C1127">
         <v>0</v>
@@ -73089,10 +73089,10 @@
     </row>
     <row r="1128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1128">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B1128">
-        <v>1966</v>
+        <v>1961</v>
       </c>
       <c r="C1128">
         <v>0</v>
@@ -73100,10 +73100,10 @@
     </row>
     <row r="1129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1129">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B1129">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="C1129">
         <v>0</v>
@@ -73111,10 +73111,10 @@
     </row>
     <row r="1130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1130">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B1130">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="C1130">
         <v>0</v>
@@ -73122,10 +73122,10 @@
     </row>
     <row r="1131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1131">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B1131">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="C1131">
         <v>0</v>
@@ -73133,7 +73133,7 @@
     </row>
     <row r="1132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1132">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1132">
         <v>1965</v>
@@ -73144,7 +73144,7 @@
     </row>
     <row r="1133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1133">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1133">
         <v>1966</v>
@@ -73155,7 +73155,7 @@
     </row>
     <row r="1134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1134">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1134">
         <v>1967</v>
@@ -73166,7 +73166,7 @@
     </row>
     <row r="1135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1135">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1135">
         <v>1968</v>
@@ -73177,7 +73177,7 @@
     </row>
     <row r="1136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1136">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1136">
         <v>1969</v>
@@ -73188,7 +73188,7 @@
     </row>
     <row r="1137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1137">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1137">
         <v>1960</v>
@@ -73199,7 +73199,7 @@
     </row>
     <row r="1138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1138">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1138">
         <v>1961</v>
@@ -73210,7 +73210,7 @@
     </row>
     <row r="1139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1139">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1139">
         <v>1962</v>
@@ -73221,7 +73221,7 @@
     </row>
     <row r="1140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1140">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1140">
         <v>1963</v>
@@ -73232,7 +73232,7 @@
     </row>
     <row r="1141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1141">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1141">
         <v>1964</v>
@@ -73243,7 +73243,7 @@
     </row>
     <row r="1142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1142">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1142">
         <v>1965</v>
@@ -73254,7 +73254,7 @@
     </row>
     <row r="1143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1143">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1143">
         <v>1966</v>
@@ -73265,7 +73265,7 @@
     </row>
     <row r="1144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1144">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1144">
         <v>1967</v>
@@ -73276,7 +73276,7 @@
     </row>
     <row r="1145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1145">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1145">
         <v>1968</v>
@@ -73287,7 +73287,7 @@
     </row>
     <row r="1146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1146">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1146">
         <v>1969</v>
@@ -73298,7 +73298,7 @@
     </row>
     <row r="1147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1147">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1147">
         <v>1960</v>
@@ -73309,7 +73309,7 @@
     </row>
     <row r="1148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1148">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1148">
         <v>1961</v>
@@ -73320,7 +73320,7 @@
     </row>
     <row r="1149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1149">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1149">
         <v>1962</v>
@@ -73331,7 +73331,7 @@
     </row>
     <row r="1150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1150">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1150">
         <v>1963</v>
@@ -73342,7 +73342,7 @@
     </row>
     <row r="1151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1151">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1151">
         <v>1964</v>
@@ -73353,7 +73353,7 @@
     </row>
     <row r="1152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1152">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1152">
         <v>1965</v>
@@ -73364,7 +73364,7 @@
     </row>
     <row r="1153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1153">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1153">
         <v>1966</v>
@@ -73375,7 +73375,7 @@
     </row>
     <row r="1154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1154">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1154">
         <v>1967</v>
@@ -73386,7 +73386,7 @@
     </row>
     <row r="1155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1155">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1155">
         <v>1968</v>
@@ -73397,7 +73397,7 @@
     </row>
     <row r="1156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1156">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1156">
         <v>1969</v>
@@ -73408,7 +73408,7 @@
     </row>
     <row r="1157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1157">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1157">
         <v>1960</v>
@@ -73419,7 +73419,7 @@
     </row>
     <row r="1158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1158">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1158">
         <v>1961</v>
@@ -73430,7 +73430,7 @@
     </row>
     <row r="1159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1159">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1159">
         <v>1962</v>
@@ -73441,7 +73441,7 @@
     </row>
     <row r="1160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1160">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1160">
         <v>1963</v>
@@ -73452,7 +73452,7 @@
     </row>
     <row r="1161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1161">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1161">
         <v>1964</v>
@@ -73463,7 +73463,7 @@
     </row>
     <row r="1162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1162">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1162">
         <v>1965</v>
@@ -73474,7 +73474,7 @@
     </row>
     <row r="1163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1163">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1163">
         <v>1966</v>
@@ -73485,7 +73485,7 @@
     </row>
     <row r="1164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1164">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1164">
         <v>1967</v>
@@ -73496,7 +73496,7 @@
     </row>
     <row r="1165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1165">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1165">
         <v>1968</v>
@@ -73507,7 +73507,7 @@
     </row>
     <row r="1166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1166">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1166">
         <v>1969</v>
@@ -73518,7 +73518,7 @@
     </row>
     <row r="1167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1167">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1167">
         <v>1960</v>
@@ -73529,7 +73529,7 @@
     </row>
     <row r="1168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1168">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1168">
         <v>1961</v>
@@ -73540,7 +73540,7 @@
     </row>
     <row r="1169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1169">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1169">
         <v>1962</v>
@@ -73551,7 +73551,7 @@
     </row>
     <row r="1170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1170">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1170">
         <v>1963</v>
@@ -73562,7 +73562,7 @@
     </row>
     <row r="1171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1171">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1171">
         <v>1964</v>
@@ -73573,7 +73573,7 @@
     </row>
     <row r="1172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1172">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1172">
         <v>1965</v>
@@ -73584,7 +73584,7 @@
     </row>
     <row r="1173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1173">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1173">
         <v>1966</v>
@@ -73595,7 +73595,7 @@
     </row>
     <row r="1174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1174">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1174">
         <v>1967</v>
@@ -73606,7 +73606,7 @@
     </row>
     <row r="1175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1175">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1175">
         <v>1968</v>
@@ -73617,7 +73617,7 @@
     </row>
     <row r="1176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1176">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1176">
         <v>1969</v>
@@ -73628,7 +73628,7 @@
     </row>
     <row r="1177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1177">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1177">
         <v>1960</v>
@@ -73639,7 +73639,7 @@
     </row>
     <row r="1178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1178">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1178">
         <v>1961</v>
@@ -73650,7 +73650,7 @@
     </row>
     <row r="1179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1179">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1179">
         <v>1962</v>
@@ -73661,7 +73661,7 @@
     </row>
     <row r="1180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1180">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1180">
         <v>1963</v>
@@ -73672,7 +73672,7 @@
     </row>
     <row r="1181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1181">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1181">
         <v>1964</v>
@@ -73683,7 +73683,7 @@
     </row>
     <row r="1182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1182">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1182">
         <v>1965</v>
@@ -73694,7 +73694,7 @@
     </row>
     <row r="1183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1183">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1183">
         <v>1966</v>
@@ -73705,7 +73705,7 @@
     </row>
     <row r="1184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1184">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1184">
         <v>1967</v>
@@ -73716,7 +73716,7 @@
     </row>
     <row r="1185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1185">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1185">
         <v>1968</v>
@@ -73727,7 +73727,7 @@
     </row>
     <row r="1186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1186">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1186">
         <v>1969</v>
@@ -73738,7 +73738,7 @@
     </row>
     <row r="1187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1187">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B1187">
         <v>1960</v>
@@ -73749,7 +73749,7 @@
     </row>
     <row r="1188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1188">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B1188">
         <v>1961</v>
@@ -73760,7 +73760,7 @@
     </row>
     <row r="1189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1189">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B1189">
         <v>1962</v>
@@ -73771,7 +73771,7 @@
     </row>
     <row r="1190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1190">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B1190">
         <v>1963</v>
@@ -73782,7 +73782,7 @@
     </row>
     <row r="1191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1191">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B1191">
         <v>1964</v>
@@ -73793,7 +73793,7 @@
     </row>
     <row r="1192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1192">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B1192">
         <v>1965</v>
@@ -73804,7 +73804,7 @@
     </row>
     <row r="1193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1193">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B1193">
         <v>1966</v>
@@ -73815,7 +73815,7 @@
     </row>
     <row r="1194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1194">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B1194">
         <v>1967</v>
@@ -73826,7 +73826,7 @@
     </row>
     <row r="1195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1195">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B1195">
         <v>1968</v>
@@ -73837,7 +73837,7 @@
     </row>
     <row r="1196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1196">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B1196">
         <v>1969</v>
@@ -73848,10 +73848,10 @@
     </row>
     <row r="1197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1197">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1197">
-        <v>1960</v>
+        <v>1965</v>
       </c>
       <c r="C1197">
         <v>0</v>
@@ -73859,10 +73859,10 @@
     </row>
     <row r="1198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1198">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1198">
-        <v>1961</v>
+        <v>1966</v>
       </c>
       <c r="C1198">
         <v>0</v>
@@ -73870,10 +73870,10 @@
     </row>
     <row r="1199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1199">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1199">
-        <v>1962</v>
+        <v>1967</v>
       </c>
       <c r="C1199">
         <v>0</v>
@@ -73881,10 +73881,10 @@
     </row>
     <row r="1200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1200">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1200">
-        <v>1963</v>
+        <v>1968</v>
       </c>
       <c r="C1200">
         <v>0</v>
@@ -73892,10 +73892,10 @@
     </row>
     <row r="1201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1201">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1201">
-        <v>1964</v>
+        <v>1969</v>
       </c>
       <c r="C1201">
         <v>0</v>
@@ -73903,10 +73903,10 @@
     </row>
     <row r="1202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1202">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="B1202">
-        <v>1965</v>
+        <v>1960</v>
       </c>
       <c r="C1202">
         <v>0</v>
@@ -73914,10 +73914,10 @@
     </row>
     <row r="1203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1203">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="B1203">
-        <v>1966</v>
+        <v>1961</v>
       </c>
       <c r="C1203">
         <v>0</v>
@@ -73925,10 +73925,10 @@
     </row>
     <row r="1204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1204">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="B1204">
-        <v>1967</v>
+        <v>1962</v>
       </c>
       <c r="C1204">
         <v>0</v>
@@ -73936,10 +73936,10 @@
     </row>
     <row r="1205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1205">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="B1205">
-        <v>1968</v>
+        <v>1963</v>
       </c>
       <c r="C1205">
         <v>0</v>
@@ -73947,10 +73947,10 @@
     </row>
     <row r="1206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1206">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="B1206">
-        <v>1969</v>
+        <v>1964</v>
       </c>
       <c r="C1206">
         <v>0</v>
@@ -73958,7 +73958,7 @@
     </row>
     <row r="1207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1207">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1207">
         <v>1965</v>
@@ -73969,7 +73969,7 @@
     </row>
     <row r="1208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1208">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1208">
         <v>1966</v>
@@ -73980,7 +73980,7 @@
     </row>
     <row r="1209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1209">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1209">
         <v>1967</v>
@@ -73991,7 +73991,7 @@
     </row>
     <row r="1210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1210">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1210">
         <v>1968</v>
@@ -74002,7 +74002,7 @@
     </row>
     <row r="1211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1211">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1211">
         <v>1969</v>
@@ -74013,7 +74013,7 @@
     </row>
     <row r="1212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1212">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1212">
         <v>1960</v>
@@ -74024,7 +74024,7 @@
     </row>
     <row r="1213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1213">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1213">
         <v>1961</v>
@@ -74035,7 +74035,7 @@
     </row>
     <row r="1214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1214">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1214">
         <v>1962</v>
@@ -74046,7 +74046,7 @@
     </row>
     <row r="1215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1215">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1215">
         <v>1963</v>
@@ -74057,7 +74057,7 @@
     </row>
     <row r="1216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1216">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1216">
         <v>1964</v>
@@ -74068,40 +74068,40 @@
     </row>
     <row r="1217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1217">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1217">
         <v>1965</v>
       </c>
       <c r="C1217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1218">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1218">
         <v>1966</v>
       </c>
       <c r="C1218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1219">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1219">
         <v>1967</v>
       </c>
       <c r="C1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1220">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1220">
         <v>1968</v>
@@ -74112,7 +74112,7 @@
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1221">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1221">
         <v>1969</v>
@@ -74123,446 +74123,336 @@
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1222">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1222">
         <v>1960</v>
       </c>
       <c r="C1222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1223">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1223">
         <v>1961</v>
       </c>
       <c r="C1223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1224">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1224">
         <v>1962</v>
       </c>
       <c r="C1224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1225">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1225">
         <v>1963</v>
       </c>
       <c r="C1225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1226">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1226">
         <v>1964</v>
       </c>
       <c r="C1226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1227">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1227">
         <v>1965</v>
       </c>
       <c r="C1227">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1228">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1228">
         <v>1966</v>
       </c>
       <c r="C1228">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1229">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1229">
         <v>1967</v>
       </c>
       <c r="C1229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1230">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1230">
         <v>1968</v>
       </c>
       <c r="C1230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1231">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1231">
         <v>1969</v>
       </c>
       <c r="C1231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1232">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B1232">
         <v>1960</v>
       </c>
       <c r="C1232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1233">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B1233">
         <v>1961</v>
       </c>
       <c r="C1233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1234">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B1234">
         <v>1962</v>
       </c>
       <c r="C1234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1235">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B1235">
         <v>1963</v>
       </c>
       <c r="C1235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1236">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B1236">
         <v>1964</v>
       </c>
       <c r="C1236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1237">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B1237">
         <v>1965</v>
       </c>
       <c r="C1237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1238">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B1238">
         <v>1966</v>
       </c>
       <c r="C1238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1239">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B1239">
         <v>1967</v>
       </c>
       <c r="C1239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1240">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B1240">
         <v>1968</v>
       </c>
       <c r="C1240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1241">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B1241">
         <v>1969</v>
       </c>
       <c r="C1241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1242">
-        <v>920</v>
-      </c>
-      <c r="B1242">
-        <v>1960</v>
-      </c>
-      <c r="C1242">
+      <c r="A1242" s="1">
+        <v>970</v>
+      </c>
+      <c r="B1242" s="1">
+        <v>1968</v>
+      </c>
+      <c r="C1242" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1243">
-        <v>920</v>
-      </c>
-      <c r="B1243">
-        <v>1961</v>
-      </c>
-      <c r="C1243">
+      <c r="A1243" s="1">
+        <v>970</v>
+      </c>
+      <c r="B1243" s="1">
+        <v>1969</v>
+      </c>
+      <c r="C1243" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1244">
-        <v>920</v>
+        <v>990</v>
       </c>
       <c r="B1244">
         <v>1962</v>
       </c>
-      <c r="C1244">
+      <c r="C1244" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1245">
-        <v>920</v>
+        <v>990</v>
       </c>
       <c r="B1245">
         <v>1963</v>
       </c>
-      <c r="C1245">
+      <c r="C1245" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1246">
-        <v>920</v>
+        <v>990</v>
       </c>
       <c r="B1246">
         <v>1964</v>
       </c>
-      <c r="C1246">
+      <c r="C1246" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1247">
-        <v>920</v>
+        <v>990</v>
       </c>
       <c r="B1247">
         <v>1965</v>
       </c>
-      <c r="C1247">
+      <c r="C1247" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1248">
-        <v>920</v>
+        <v>990</v>
       </c>
       <c r="B1248">
         <v>1966</v>
       </c>
-      <c r="C1248">
+      <c r="C1248" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1249">
-        <v>920</v>
+        <v>990</v>
       </c>
       <c r="B1249">
         <v>1967</v>
       </c>
-      <c r="C1249">
+      <c r="C1249" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1250">
-        <v>920</v>
+        <v>990</v>
       </c>
       <c r="B1250">
         <v>1968</v>
       </c>
-      <c r="C1250">
+      <c r="C1250" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1251">
-        <v>920</v>
+        <v>990</v>
       </c>
       <c r="B1251">
         <v>1969</v>
       </c>
-      <c r="C1251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1252" s="1">
-        <v>970</v>
-      </c>
-      <c r="B1252" s="1">
-        <v>1968</v>
-      </c>
-      <c r="C1252" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1253" s="1">
-        <v>970</v>
-      </c>
-      <c r="B1253" s="1">
-        <v>1969</v>
-      </c>
-      <c r="C1253" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1254">
-        <v>990</v>
-      </c>
-      <c r="B1254">
-        <v>1962</v>
-      </c>
-      <c r="C1254" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1255">
-        <v>990</v>
-      </c>
-      <c r="B1255">
-        <v>1963</v>
-      </c>
-      <c r="C1255" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1256">
-        <v>990</v>
-      </c>
-      <c r="B1256">
-        <v>1964</v>
-      </c>
-      <c r="C1256" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1257">
-        <v>990</v>
-      </c>
-      <c r="B1257">
-        <v>1965</v>
-      </c>
-      <c r="C1257" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1258">
-        <v>990</v>
-      </c>
-      <c r="B1258">
-        <v>1966</v>
-      </c>
-      <c r="C1258" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1259">
-        <v>990</v>
-      </c>
-      <c r="B1259">
-        <v>1967</v>
-      </c>
-      <c r="C1259" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1260">
-        <v>990</v>
-      </c>
-      <c r="B1260">
-        <v>1968</v>
-      </c>
-      <c r="C1260" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1261">
-        <v>990</v>
-      </c>
-      <c r="B1261">
-        <v>1969</v>
-      </c>
-      <c r="C1261" s="1">
+      <c r="C1251" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1253"/>
+  <autoFilter ref="A1:C1243"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
